--- a/results/lasso_symptoms/sample_sizes_for_features.xlsx
+++ b/results/lasso_symptoms/sample_sizes_for_features.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,162 +382,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>omicron</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2">
-        <v>797</v>
+        <v>205</v>
       </c>
       <c r="D2">
-        <v>0.5414402173913043</v>
+        <v>0.1392663043478261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>omicron</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3">
-        <v>675</v>
+        <v>1267</v>
       </c>
       <c r="D3">
-        <v>0.4585597826086957</v>
+        <v>0.8607336956521739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>797</v>
       </c>
       <c r="D4">
-        <v>0.06114130434782609</v>
+        <v>0.5414402173913043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C5">
-        <v>347</v>
+        <v>675</v>
       </c>
       <c r="D5">
-        <v>0.2357336956521739</v>
+        <v>0.4585597826086957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>vaccination status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6">
-        <v>1035</v>
+        <v>494</v>
       </c>
       <c r="D6">
-        <v>0.703125</v>
+        <v>0.3355978260869565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>omicron</t>
+          <t>vaccination status</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7">
-        <v>205</v>
+        <v>978</v>
       </c>
       <c r="D7">
-        <v>0.1392663043478261</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>omicron</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>1267</v>
-      </c>
-      <c r="D8">
-        <v>0.8607336956521739</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>vaccination status</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>494</v>
-      </c>
-      <c r="D9">
-        <v>0.3355978260869565</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>vaccination status</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>978</v>
-      </c>
-      <c r="D10">
         <v>0.6644021739130435</v>
       </c>
     </row>
